--- a/Tables/profits.xlsx
+++ b/Tables/profits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/firattamur/Google Drive/Indr262 - Term Project/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{877E43FB-3EA0-9E44-91CA-216FE624C334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE051A15-2D68-154A-8511-6E761D339272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{778A0658-13CE-084D-A949-47112F729C81}"/>
+    <workbookView xWindow="16920" yWindow="460" windowWidth="16680" windowHeight="20540" xr2:uid="{778A0658-13CE-084D-A949-47112F729C81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E3">
         <v>5</v>
